--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36712.75988624528</v>
+        <v>7305839.217362808</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36712.75988624528</v>
+        <v>7305839.217362808</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27863.39108872432</v>
+        <v>2037924.280929716</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27863.39108872432</v>
+        <v>2037924.280929716</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419868931.381336</v>
+        <v>57259162.66209577</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13146.77230369166</v>
+        <v>1403888.446597692</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24651.13366974059</v>
+        <v>2536984.242923543</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36155.49503578951</v>
+        <v>3670080.039249398</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48158.20493229775</v>
+        <v>4802108.086782878</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60160.91482880595</v>
+        <v>5934136.134316358</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72163.62472531416</v>
+        <v>7066164.181849835</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84166.33462182236</v>
+        <v>8198192.229383308</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96169.04451833057</v>
+        <v>9330220.276916781</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108641.9795162551</v>
+        <v>10343958.61530517</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120758.7402335445</v>
+        <v>11498304.77271277</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132761.3853952785</v>
+        <v>12629941.93456482</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144764.0305570124</v>
+        <v>13761579.09641687</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156766.6757187463</v>
+        <v>14893216.25826893</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169246.5123099441</v>
+        <v>15959426.16271764</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>182364.386283375</v>
+        <v>16963673.66525762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>780</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
